--- a/Dictionaries/SEXVAR.xlsx
+++ b/Dictionaries/SEXVAR.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2523d341f1af05b7/Documents/SAN JOSE STATE/Master/CMPE 255/CMPE255 Group Project-20241025T055613Z-001/CMPE255 Group Project/Dictionaries/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="14" documentId="8_{BED2A1A4-CC40-41DE-AB0C-7728E5BEFFFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{024D40AD-42CD-4F7C-BC99-2359F9788E53}"/>
+  <xr:revisionPtr revIDLastSave="15" documentId="8_{BED2A1A4-CC40-41DE-AB0C-7728E5BEFFFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B4E4581E-3A1C-4516-BC3B-2AF98317A075}"/>
   <bookViews>
-    <workbookView xWindow="4905" yWindow="2295" windowWidth="21600" windowHeight="11295" xr2:uid="{E5D1E9AE-FC14-4F3E-9397-37627BB5E6EC}"/>
+    <workbookView xWindow="7545" yWindow="750" windowWidth="21600" windowHeight="11295" xr2:uid="{E5D1E9AE-FC14-4F3E-9397-37627BB5E6EC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,10 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
-  <si>
-    <t>SEXVAR</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Value</t>
   </si>
@@ -305,6 +302,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -624,10 +625,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F188B65-8BE8-4CE2-A54D-740D018AA2A6}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -636,59 +637,54 @@
     <col min="4" max="5" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:5" ht="27" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" ht="27" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="7">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="3">
+        <v>203782</v>
+      </c>
+      <c r="D2" s="1">
+        <v>47.03</v>
+      </c>
+      <c r="E2" s="8">
+        <v>48.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="9">
         <v>2</v>
       </c>
-      <c r="C2" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="7">
-        <v>1</v>
-      </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="3">
-        <v>203782</v>
-      </c>
-      <c r="D3" s="1">
-        <v>47.03</v>
-      </c>
-      <c r="E3" s="8">
-        <v>48.5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="9">
-        <v>2</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="11">
+      <c r="C3" s="11">
         <v>229541</v>
       </c>
-      <c r="D4" s="12">
+      <c r="D3" s="12">
         <v>52.97</v>
       </c>
-      <c r="E4" s="13">
+      <c r="E3" s="13">
         <v>51.5</v>
       </c>
     </row>
